--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265504CD-1882-9445-BBC3-8ABD734EC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B83410-CFCC-174F-B3A3-090C40C394C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Problem</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Solution</t>
+  </si>
+  <si>
+    <t>Maximun Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use recursive DFS approach to count depth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use recursive DFS approach to check values of nodes. </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Return binary tree's maximum depth.</t>
+  </si>
+  <si>
+    <t>Check if binary trees are same.</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Invert given binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use recursive DFS to invert subtrees </t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Check if tree is subtree of another tree.</t>
+  </si>
+  <si>
+    <t>Use recursive DFS to traverse thru nodes and call isSameTree function to check weather trees are same.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/invert-binary-tree/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,20 +111,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,16 +188,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,27 +522,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="187.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="1" customWidth="1"/>
+    <col min="3" max="3" width="187.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B83410-CFCC-174F-B3A3-090C40C394C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD822A34-352C-5E4E-B2A4-B285BC02390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Solution</t>
   </si>
@@ -96,13 +96,37 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/invert-binary-tree/</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a BST</t>
+  </si>
+  <si>
+    <t>Check if provided nodes are in left or right subtrees. Recursively call LCA function pass subtree where nodes are or return root.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a BT</t>
+  </si>
+  <si>
+    <t>Return LCA of nodes in a BST</t>
+  </si>
+  <si>
+    <t>Return LCA of nodes in a BT</t>
+  </si>
+  <si>
+    <t>Check for the nodes in left and right subtrees by calling LCA function and passing left and right subtrees. If both has value, return root. Else return root of substree which has value</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,13 +161,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="0"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -154,14 +171,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +210,11 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,28 +225,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,31 +559,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="3" width="187.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="197" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -560,7 +597,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -574,7 +611,7 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -588,7 +625,7 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -602,8 +639,36 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -612,6 +677,8 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD822A34-352C-5E4E-B2A4-B285BC02390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CFB254-A051-6D49-ABFC-8AD57D39FE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Solution</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Return BT traversed in list of list</t>
+  </si>
+  <si>
+    <t>Use queue to iteratively BFS traverse. Keep count of levels and add values to list accordingly.</t>
   </si>
 </sst>
 </file>
@@ -559,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -671,6 +680,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CFB254-A051-6D49-ABFC-8AD57D39FE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F4DD45-379A-3C43-AF13-1B4E2494C245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="3300" yWindow="4500" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Solution</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Use queue to iteratively BFS traverse. Keep count of levels and add values to list accordingly.</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Return true if provided tree is a BST</t>
+  </si>
+  <si>
+    <t>Use stack to iteratively DFS Inorder traverse on a tree. If prevous value is greater than current, return false;</t>
   </si>
 </sst>
 </file>
@@ -568,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -691,6 +700,17 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F4DD45-379A-3C43-AF13-1B4E2494C245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9CF33-A2DF-D84C-9025-4DD9B9CCFDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="4500" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Solution</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>Use stack to iteratively DFS Inorder traverse on a tree. If prevous value is greater than current, return false;</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Return true if provided graph is a tree</t>
+  </si>
+  <si>
+    <t>Create adjacency List of list. Use stack to iteratively DFS traverse. Keep track of visited neighbors using a set. Keep remove backpointer from the adjacency list. If numNodes == set size, return true. If current node already in the set, return false</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/graph-valid-tree/</t>
   </si>
 </sst>
 </file>
@@ -577,17 +595,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="197" style="1" customWidth="1"/>
+    <col min="3" max="3" width="197.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -699,6 +717,9 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -709,6 +730,23 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -719,6 +757,9 @@
     <hyperlink ref="D4" r:id="rId4" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9CF33-A2DF-D84C-9025-4DD9B9CCFDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43F638-0980-144C-A9B3-D6A1CA37CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Solution</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/graph-valid-tree/</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Return array of product of each element except current</t>
+  </si>
+  <si>
+    <t>Create prefix and postfix product array. Calculate prefix and postfix products and return array by multiplying both</t>
   </si>
 </sst>
 </file>
@@ -595,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -747,6 +756,17 @@
       </c>
       <c r="D10" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B43F638-0980-144C-A9B3-D6A1CA37CCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512E42B-EC92-5441-89AE-41AAFD253827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Solution</t>
   </si>
@@ -165,6 +165,30 @@
   </si>
   <si>
     <t>Create prefix and postfix product array. Calculate prefix and postfix products and return array by multiplying both</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/</t>
+  </si>
+  <si>
+    <t>Return largest sum of the sub-array</t>
+  </si>
+  <si>
+    <t>Take maximum of current sum + current num and current num to keep current sum positive. Keep updating maximum sum using current sum</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Return min in O(log n) time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>Use modified binary search. Compare mid element with first and last element. If n[mid] &gt; n[right], element is in right. If n[mid] &lt; n[left], element is in left. Else return n[left]</t>
   </si>
 </sst>
 </file>
@@ -604,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -768,6 +792,37 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -780,6 +835,9 @@
     <hyperlink ref="D8" r:id="rId7" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512E42B-EC92-5441-89AE-41AAFD253827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284EA08-0957-9447-A408-CF75395A1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Solution</t>
   </si>
@@ -189,6 +189,27 @@
   </si>
   <si>
     <t>Use modified binary search. Compare mid element with first and last element. If n[mid] &gt; n[right], element is in right. If n[mid] &lt; n[left], element is in left. Else return n[left]</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Return idexes of the target sum in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a complement hashmap to keep track of complements(target - currentNum). If complement exist for currentNum in map, we found our target. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>Use two pointers left and right to calculate current sum. If current sum &gt; target, decrease right pointer else increase left pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
   </si>
 </sst>
 </file>
@@ -628,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -822,6 +843,34 @@
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -838,6 +887,8 @@
     <hyperlink ref="D12" r:id="rId10" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
     <hyperlink ref="D11" r:id="rId11" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C284EA08-0957-9447-A408-CF75395A1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA0E79-C88E-8942-B377-05263070AFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Solution</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Return triplet of sum 0</t>
+  </si>
+  <si>
+    <t>Sort input array. Use for loop to go over elements. Only consider negatives and 0 as a potential first element. Use left/right pointer to find other two elements same as Two Sum II.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum</t>
   </si>
 </sst>
 </file>
@@ -649,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -871,6 +883,20 @@
       </c>
       <c r="D15" s="3" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -889,6 +915,7 @@
     <hyperlink ref="D13" r:id="rId12" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA0E79-C88E-8942-B377-05263070AFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78EA2F-D937-1A44-97AD-5967079AFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Solution</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/3sum</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Return maximum possible area</t>
+  </si>
+  <si>
+    <t>Use two pointers left and right to calculate current area. Compare height at left and right pointer. Move pointer inwards whichever has shorter height.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/</t>
   </si>
 </sst>
 </file>
@@ -661,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -897,6 +909,20 @@
       </c>
       <c r="D16" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -916,6 +942,7 @@
     <hyperlink ref="D14" r:id="rId13" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78EA2F-D937-1A44-97AD-5967079AFF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C82CFE4-DCB7-B64D-BD52-AD33291A1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="17220" yWindow="760" windowWidth="17340" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Solution</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/container-with-most-water/</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+  </si>
+  <si>
+    <t>Return dinstics way to climb for given steps</t>
+  </si>
+  <si>
+    <t>Use a bottom-up approach using for loop and an array. Subproblem: dp[n] = dp[n-1] + dp[n-2]</t>
   </si>
 </sst>
 </file>
@@ -673,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -923,6 +935,20 @@
       </c>
       <c r="D17" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -943,6 +969,7 @@
     <hyperlink ref="D15" r:id="rId14" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
     <hyperlink ref="D17" r:id="rId16" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C82CFE4-DCB7-B64D-BD52-AD33291A1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F53276-BA2B-614F-88A9-5B9FDFB57EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17220" yWindow="760" windowWidth="17340" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Solution</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>Use a bottom-up approach using for loop and an array. Subproblem: dp[n] = dp[n-1] + dp[n-2]</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/</t>
+  </si>
+  <si>
+    <t>Return maximum ammount without robbing adjacent houses</t>
+  </si>
+  <si>
+    <t>Use a bottom-up approach using for loop and an array. Subproblem: dp[n] = Math.max(dp[n-1], dp[n-2] + nums[n])</t>
   </si>
 </sst>
 </file>
@@ -685,9 +697,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -949,6 +961,20 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -970,6 +996,7 @@
     <hyperlink ref="D16" r:id="rId15" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
     <hyperlink ref="D17" r:id="rId16" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F53276-BA2B-614F-88A9-5B9FDFB57EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59339630-904F-B144-BAD5-328AEC13BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="760" windowWidth="17340" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>Solution</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>Use a bottom-up approach using for loop and an array. Subproblem: dp[n] = Math.max(dp[n-1], dp[n-2] + nums[n])</t>
+  </si>
+  <si>
+    <t>House Robber II - Houses in Circle</t>
+  </si>
+  <si>
+    <t>Split input array into two arrays skipping first and last houses. Pass these two arrays to the house robber function and return max value</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-ii/</t>
   </si>
 </sst>
 </file>
@@ -697,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -975,6 +984,20 @@
       </c>
       <c r="D19" s="3" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -997,6 +1020,7 @@
     <hyperlink ref="D17" r:id="rId16" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59339630-904F-B144-BAD5-328AEC13BA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB3503E-E733-7145-9CCF-DEB9F406FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>Solution</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/house-robber-ii/</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return num of islands made from adjacent '1' </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/</t>
+  </si>
+  <si>
+    <t>Iterate over grid using 2 for loops. If current is '1' increase numOfIslands, call recursive DFS function to mark all as visited(change it to '0')</t>
   </si>
 </sst>
 </file>
@@ -706,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -998,6 +1010,20 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1021,6 +1047,7 @@
     <hyperlink ref="D18" r:id="rId17" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
     <hyperlink ref="D20" r:id="rId19" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB3503E-E733-7145-9CCF-DEB9F406FECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F70749-F8DA-494B-AEA6-2937EE94FDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Solution</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>Iterate over grid using 2 for loops. If current is '1' increase numOfIslands, call recursive DFS function to mark all as visited(change it to '0')</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Return length of longest common subsequence</t>
+  </si>
+  <si>
+    <t>Use 2D DP array size of input length + 1 for base case 0. Iterate over strings comparing characters. If char is same, increase by one to the i-1,j-1 value.Else pick max from left and up value.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-subsequence/</t>
   </si>
 </sst>
 </file>
@@ -718,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1036,20 @@
       </c>
       <c r="D21" s="3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1048,6 +1074,7 @@
     <hyperlink ref="D19" r:id="rId18" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
     <hyperlink ref="D20" r:id="rId19" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
     <hyperlink ref="D21" r:id="rId20" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F70749-F8DA-494B-AEA6-2937EE94FDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BAF9F8-47DF-FA4B-8A96-EBBDA3444C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>Solution</t>
   </si>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-common-subsequence/</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Return length of longest increasing subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a DP array filled with 1. Iterate over input array from left-right using 2 for loops. If n[i] &gt; n[j] -&gt; dp[i] = Math.max(dp[i], dp[j] + 1);   </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
   </si>
 </sst>
 </file>
@@ -730,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1062,20 @@
       </c>
       <c r="D22" s="3" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1075,6 +1101,7 @@
     <hyperlink ref="D20" r:id="rId19" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
     <hyperlink ref="D21" r:id="rId20" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
     <hyperlink ref="D22" r:id="rId21" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BAF9F8-47DF-FA4B-8A96-EBBDA3444C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808FFFBC-5A17-B641-8DEC-F23D5E4834B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="10640" yWindow="760" windowWidth="23920" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Solution</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Return minimum number of rooms required</t>
+  </si>
+  <si>
+    <t>Sort input array by start-time. Create a minHeap using priority queue to store end-time in ascending order. Iterate over input array and check if startTime is greater than min end-time. If yes, remove the current end-time.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-ii/</t>
   </si>
 </sst>
 </file>
@@ -742,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1088,20 @@
       </c>
       <c r="D23" s="3" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1102,6 +1128,7 @@
     <hyperlink ref="D21" r:id="rId20" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
     <hyperlink ref="D22" r:id="rId21" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
     <hyperlink ref="D23" r:id="rId22" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808FFFBC-5A17-B641-8DEC-F23D5E4834B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F53AF5-E8E6-154C-9EF9-A5982E47E90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="760" windowWidth="23920" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="15560" yWindow="760" windowWidth="19000" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>Solution</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/meeting-rooms-ii/</t>
+  </si>
+  <si>
+    <t>Employee Importance</t>
+  </si>
+  <si>
+    <t>Return total importance of the given ID</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/employee-importance/</t>
+  </si>
+  <si>
+    <t>Map employee id to employee id using a hashmap. Call DFS method passing employee id. Iterate over subordinates list while keep adding total importance.</t>
   </si>
 </sst>
 </file>
@@ -754,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1102,6 +1114,20 @@
       </c>
       <c r="D24" s="3" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1129,6 +1155,7 @@
     <hyperlink ref="D22" r:id="rId21" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
     <hyperlink ref="D23" r:id="rId22" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
     <hyperlink ref="D24" r:id="rId23" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F53AF5-E8E6-154C-9EF9-A5982E47E90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8CCCDF-97A8-184A-AA71-E36F130EAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15560" yWindow="760" windowWidth="19000" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8CCCDF-97A8-184A-AA71-E36F130EAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70AC365-EAF8-D84A-B5BC-B62CB713CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="760" windowWidth="19000" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="18300" yWindow="760" windowWidth="16260" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>Solution</t>
   </si>
@@ -327,6 +327,30 @@
   </si>
   <si>
     <t>Map employee id to employee id using a hashmap. Call DFS method passing employee id. Iterate over subordinates list while keep adding total importance.</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>Convert input string to character array and sort it. Compare both arrays.</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Return true if word is anagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return group of anagrams </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort each word from input array and create a map of sorted string and the list of original strings. Take values from Map and return as an ArrayList </t>
   </si>
 </sst>
 </file>
@@ -766,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1128,6 +1152,34 @@
       </c>
       <c r="D25" s="3" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1156,6 +1208,8 @@
     <hyperlink ref="D23" r:id="rId22" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
     <hyperlink ref="D24" r:id="rId23" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
     <hyperlink ref="D25" r:id="rId24" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70AC365-EAF8-D84A-B5BC-B62CB713CE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54BDBC-3962-414D-B62D-AD22B9DF16EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="760" windowWidth="16260" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>Solution</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sort each word from input array and create a map of sorted string and the list of original strings. Take values from Map and return as an ArrayList </t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Return K top frequent elements</t>
+  </si>
+  <si>
+    <t>Use Map to map elements with their freqencies. Use priority queue to sort elements by its frequencies desc. Remove from pq and return as an array.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
   </si>
 </sst>
 </file>
@@ -790,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1192,20 @@
       </c>
       <c r="D27" s="3" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1210,6 +1236,7 @@
     <hyperlink ref="D25" r:id="rId24" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
     <hyperlink ref="D26" r:id="rId25" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
     <hyperlink ref="D27" r:id="rId26" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54BDBC-3962-414D-B62D-AD22B9DF16EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267ECC4-EEBC-314C-9B5C-F369962B2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
   <si>
     <t>Solution</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Return true if given char array a valid sudoku</t>
+  </si>
+  <si>
+    <t>Check each row, column and sub-boxes for repetive characters. Use visited array or a hashset to check for duplicates.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-sudoku/</t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1206,6 +1218,20 @@
       </c>
       <c r="D28" s="3" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1237,6 +1263,7 @@
     <hyperlink ref="D26" r:id="rId25" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
     <hyperlink ref="D27" r:id="rId26" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
     <hyperlink ref="D28" r:id="rId27" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267ECC4-EEBC-314C-9B5C-F369962B2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845934A7-C72A-5949-9092-E31FA63B0316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="7080" yWindow="760" windowWidth="27480" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
   <si>
     <t>Solution</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return encoded and decoded strings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since input is ASCII, use any Unicode character as a delimiter (e.g."π") to encode string. Split from delimiter to decode string. Don't include last element since that is delimiter. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/encode-and-decode-strings/</t>
   </si>
 </sst>
 </file>
@@ -814,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1232,6 +1244,20 @@
       </c>
       <c r="D29" s="3" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1264,6 +1290,7 @@
     <hyperlink ref="D27" r:id="rId26" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
     <hyperlink ref="D28" r:id="rId27" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
     <hyperlink ref="D29" r:id="rId28" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845934A7-C72A-5949-9092-E31FA63B0316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27B160-94E9-964C-A06A-F4806F956A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="760" windowWidth="27480" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>Solution</t>
   </si>
@@ -387,6 +387,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/encode-and-decode-strings/</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>Return length of longest consecutive subsequence</t>
+  </si>
+  <si>
+    <t>Use a hashset for quick element loopup. If current + 1 in the set, increase the current length. Return max length</t>
   </si>
 </sst>
 </file>
@@ -826,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1150,113 +1162,127 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1283,14 +1309,15 @@
     <hyperlink ref="D20" r:id="rId19" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
     <hyperlink ref="D21" r:id="rId20" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
     <hyperlink ref="D22" r:id="rId21" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D23" r:id="rId30" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27B160-94E9-964C-A06A-F4806F956A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9A136-2A26-2548-B4D8-D53F98739F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="14660" yWindow="760" windowWidth="19900" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t>Solution</t>
   </si>
@@ -399,13 +399,25 @@
   </si>
   <si>
     <t>Use a hashset for quick element loopup. If current + 1 in the set, increase the current length. Return max length</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Return maximum amount of water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create left &amp; right pointers. Use two variables to keep track of left and right max. Iterate through height array and if height[left] &lt;= height[right], update leftMax, left pointer. Else update rightMax and right pointer. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,13 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -457,13 +462,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="0"/>
@@ -471,8 +469,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +499,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -504,25 +514,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -838,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -852,22 +865,22 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -876,12 +889,12 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -890,12 +903,12 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -904,12 +917,12 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -918,7 +931,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -932,7 +945,7 @@
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -946,7 +959,7 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -960,7 +973,7 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -974,7 +987,7 @@
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -988,7 +1001,7 @@
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1002,12 +1015,12 @@
       <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1016,7 +1029,7 @@
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1030,12 +1043,12 @@
       <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1044,12 +1057,12 @@
       <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1058,7 +1071,7 @@
       <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1072,7 +1085,7 @@
       <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1086,12 +1099,12 @@
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1100,7 +1113,7 @@
       <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1114,7 +1127,7 @@
       <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1128,7 +1141,7 @@
       <c r="C20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1142,7 +1155,7 @@
       <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1156,7 +1169,7 @@
       <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1170,7 +1183,7 @@
       <c r="C23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1184,7 +1197,7 @@
       <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1198,7 +1211,7 @@
       <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1212,12 +1225,12 @@
       <c r="C26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1226,7 +1239,7 @@
       <c r="C27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1240,7 +1253,7 @@
       <c r="C28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1254,7 +1267,7 @@
       <c r="C29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1268,7 +1281,7 @@
       <c r="C30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1282,8 +1295,22 @@
       <c r="C31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1318,6 +1345,7 @@
     <hyperlink ref="D30" r:id="rId28" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
     <hyperlink ref="D31" r:id="rId29" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
     <hyperlink ref="D23" r:id="rId30" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9A136-2A26-2548-B4D8-D53F98739F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11692818-213C-214B-9452-3DFE7B86D694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14660" yWindow="760" windowWidth="19900" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
   <si>
     <t>Solution</t>
   </si>
@@ -411,6 +411,18 @@
   </si>
   <si>
     <t xml:space="preserve">Create left &amp; right pointers. Use two variables to keep track of left and right max. Iterate through height array and if height[left] &lt;= height[right], update leftMax, left pointer. Else update rightMax and right pointer. </t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Return maximum possible profit</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>Iterate over price array and if lower price than current lower found, update minPrice variable. Else count profit and update maxProfit if curr profit &gt; maxProfit</t>
   </si>
 </sst>
 </file>
@@ -851,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -862,7 +874,8 @@
     <col min="1" max="1" width="38.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="197.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="75.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -1311,6 +1324,20 @@
       </c>
       <c r="D32" s="2" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1346,6 +1373,7 @@
     <hyperlink ref="D31" r:id="rId29" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
     <hyperlink ref="D23" r:id="rId30" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
     <hyperlink ref="D32" r:id="rId31" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11692818-213C-214B-9452-3DFE7B86D694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52241BC5-7B99-C549-B35E-79D0699A1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14660" yWindow="760" windowWidth="19900" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
   <si>
     <t>Solution</t>
   </si>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>Iterate over price array and if lower price than current lower found, update minPrice variable. Else count profit and update maxProfit if curr profit &gt; maxProfit</t>
+  </si>
+  <si>
+    <t>Longest Substring W/o Repeating Chars</t>
+  </si>
+  <si>
+    <t>Return length of longest substring without repeating chars</t>
+  </si>
+  <si>
+    <t>Use sliding window approach using two pointers starting from beginning. Keep moving right pointer and add to set until repeated char found. If char repeats, increase left pointer and remove left element from set.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
   </si>
 </sst>
 </file>
@@ -863,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1338,6 +1350,20 @@
       </c>
       <c r="D33" s="2" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1374,6 +1400,7 @@
     <hyperlink ref="D23" r:id="rId30" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
     <hyperlink ref="D32" r:id="rId31" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
     <hyperlink ref="D33" r:id="rId32" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52241BC5-7B99-C549-B35E-79D0699A1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D21666-2C55-7C46-B878-D9CD929396A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
   <si>
     <t>Solution</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>Longest Repeating Char Replacement</t>
+  </si>
+  <si>
+    <t>Return the length of the longest substring containing the same letter</t>
+  </si>
+  <si>
+    <t>Create a set containing unique chars in string. For each letter in set, intialize two pointers and iterate over input string. If curr char matches curr letter increase the count and check if window is still valid</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
   </si>
 </sst>
 </file>
@@ -875,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1364,6 +1376,20 @@
       </c>
       <c r="D34" s="2" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1401,6 +1427,7 @@
     <hyperlink ref="D32" r:id="rId31" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
     <hyperlink ref="D33" r:id="rId32" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
     <hyperlink ref="D34" r:id="rId33" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D21666-2C55-7C46-B878-D9CD929396A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F5DF3-6569-BC42-873D-3FC8B1E68B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
   <si>
     <t>Solution</t>
   </si>
@@ -447,6 +447,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return true if brackets are in pair </t>
+  </si>
+  <si>
+    <t>Use stack to hold elements while iterating. If curr char is a closing bracket and if last pushed element is opening bracket, pop the element from stack. Return true if stack is empty.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/</t>
   </si>
 </sst>
 </file>
@@ -887,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1390,6 +1402,20 @@
       </c>
       <c r="D35" s="2" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1428,6 +1454,7 @@
     <hyperlink ref="D33" r:id="rId32" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
     <hyperlink ref="D34" r:id="rId33" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
     <hyperlink ref="D35" r:id="rId34" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F5DF3-6569-BC42-873D-3FC8B1E68B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095600BF-DA44-E345-9421-233B7659E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
   <si>
     <t>Solution</t>
   </si>
@@ -459,6 +459,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-parentheses/</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>Return true if permutation of one string present in another</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-in-string/</t>
+  </si>
+  <si>
+    <t>Use an array to put frequencies of chars in S1. Use another array to put frequencies of chars in S2 while keeping window length same as S1. Check if frequency arrays are same.</t>
   </si>
 </sst>
 </file>
@@ -899,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1416,6 +1428,20 @@
       </c>
       <c r="D36" s="2" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1455,6 +1481,7 @@
     <hyperlink ref="D34" r:id="rId33" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
     <hyperlink ref="D35" r:id="rId34" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
     <hyperlink ref="D36" r:id="rId35" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095600BF-DA44-E345-9421-233B7659E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE990F-ADF3-D44C-BCF1-D017FAD012FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27780" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
   <si>
     <t>Solution</t>
   </si>
@@ -471,6 +471,18 @@
   </si>
   <si>
     <t>Use an array to put frequencies of chars in S1. Use another array to put frequencies of chars in S2 while keeping window length same as S1. Check if frequency arrays are same.</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Return string contain chars from given string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use sliding window approach using two ASCII arrays of size 128. Put char frequencies from T into targetFrequency array. Move right pointer until valid window found. Once window valid, keep moving left pointer until the window becomes invalid to make window smallest as possible. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/</t>
   </si>
 </sst>
 </file>
@@ -911,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1454,20 @@
       </c>
       <c r="D37" s="2" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1482,6 +1508,7 @@
     <hyperlink ref="D35" r:id="rId34" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
     <hyperlink ref="D36" r:id="rId35" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
     <hyperlink ref="D37" r:id="rId36" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE990F-ADF3-D44C-BCF1-D017FAD012FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B90197-9B18-1F45-8D4D-6E07077384F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="27780" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="16300" yWindow="760" windowWidth="18260" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
   <si>
     <t>Solution</t>
   </si>
@@ -483,6 +483,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-window-substring/</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Return array of maximum num in windows of provided size</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-window-maximum/</t>
+  </si>
+  <si>
+    <t>Use deque to hold indexes of the largest element. Iterate over K elements while removing smaller than current element. Iterate for rest of the windows while removing smaller elements and adding largest element to result list.</t>
   </si>
 </sst>
 </file>
@@ -923,16 +935,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="197.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="75.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -1468,6 +1480,20 @@
       </c>
       <c r="D38" s="2" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1509,6 +1535,7 @@
     <hyperlink ref="D36" r:id="rId35" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
     <hyperlink ref="D37" r:id="rId36" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
     <hyperlink ref="D38" r:id="rId37" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B90197-9B18-1F45-8D4D-6E07077384F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40AFF27-B8E9-1943-9202-B6B07E0B6F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="760" windowWidth="18260" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23060" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
   <si>
     <t>Solution</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>Use deque to hold indexes of the largest element. Iterate over K elements while removing smaller than current element. Iterate for rest of the windows while removing smaller elements and adding largest element to result list.</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-stack/</t>
+  </si>
+  <si>
+    <t>Implement push, pop, top, getMin function with O(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use one stack to hold elements in pushing order and other stack to maintain min elements. Only push to min stack if current val is less than top value of min stack.  </t>
   </si>
 </sst>
 </file>
@@ -935,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1494,6 +1506,20 @@
       </c>
       <c r="D39" s="2" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1536,6 +1562,7 @@
     <hyperlink ref="D37" r:id="rId36" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
     <hyperlink ref="D38" r:id="rId37" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
     <hyperlink ref="D39" r:id="rId38" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40AFF27-B8E9-1943-9202-B6B07E0B6F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270C3AC-76A5-C544-A4B3-596014750803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23060" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="18100" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>Solution</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t xml:space="preserve">Use one stack to hold elements in pushing order and other stack to maintain min elements. Only push to min stack if current val is less than top value of min stack.  </t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/</t>
+  </si>
+  <si>
+    <t>Return result after evaluating RPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a stack. If current char an int, push it to the stack. If curr char arithmetic sign, pop two times from stack and calculate ans and push it to the stack. </t>
   </si>
 </sst>
 </file>
@@ -947,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1520,6 +1532,20 @@
       </c>
       <c r="D40" s="2" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1563,6 +1589,7 @@
     <hyperlink ref="D38" r:id="rId37" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
     <hyperlink ref="D39" r:id="rId38" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
     <hyperlink ref="D40" r:id="rId39" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9270C3AC-76A5-C544-A4B3-596014750803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347AD5D4-3A12-0C43-AE92-915D7F310955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="18100" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15220" windowHeight="19920" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
   <si>
     <t>Solution</t>
   </si>
@@ -519,6 +519,18 @@
   </si>
   <si>
     <t xml:space="preserve">Use a stack. If current char an int, push it to the stack. If curr char arithmetic sign, pop two times from stack and calculate ans and push it to the stack. </t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Return list of combinations of parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>Use recursive backtracking helper function with base case where string length 2 * n. Add backtrack conditions where open is less than n and close is less than open… backtrack (recursive call)</t>
   </si>
 </sst>
 </file>
@@ -959,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1546,6 +1558,20 @@
       </c>
       <c r="D41" s="2" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1590,6 +1616,7 @@
     <hyperlink ref="D39" r:id="rId38" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
     <hyperlink ref="D40" r:id="rId39" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
     <hyperlink ref="D41" r:id="rId40" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347AD5D4-3A12-0C43-AE92-915D7F310955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E9869-FB34-FF45-9315-CFD56C7D2756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15220" windowHeight="19920" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="15280" yWindow="760" windowWidth="19280" windowHeight="19840" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="169">
   <si>
     <t>Solution</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>Use recursive backtracking helper function with base case where string length 2 * n. Add backtrack conditions where open is less than n and close is less than open… backtrack (recursive call)</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/daily-temperatures/</t>
+  </si>
+  <si>
+    <t>Return list of days till warmer days</t>
+  </si>
+  <si>
+    <t>Use stack to maintain indices of the temperatures that are waiting for a warmer day. Iterate over temp array and add indeces of temp to stack while they are colder than curr temp. If warmer day found, update the waiting days using index from stack.</t>
   </si>
 </sst>
 </file>
@@ -971,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1572,6 +1584,26 @@
       </c>
       <c r="D42" s="2" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <f ca="1">C50</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1617,6 +1649,7 @@
     <hyperlink ref="D40" r:id="rId39" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
     <hyperlink ref="D41" r:id="rId40" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
     <hyperlink ref="D42" r:id="rId41" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E9869-FB34-FF45-9315-CFD56C7D2756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88616C45-8497-9549-8D5B-1E808D4CBE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="760" windowWidth="19280" windowHeight="19840" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="171">
   <si>
     <t>Solution</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>Use stack to maintain indices of the temperatures that are waiting for a warmer day. Iterate over temp array and add indeces of temp to stack while they are colder than curr temp. If warmer day found, update the waiting days using index from stack.</t>
+  </si>
+  <si>
+    <t>Car Fleet</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/car-fleet/</t>
   </si>
 </sst>
 </file>
@@ -983,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1600,10 +1606,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="1">
-        <f ca="1">C50</f>
-        <v>0</v>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1650,6 +1658,7 @@
     <hyperlink ref="D41" r:id="rId40" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
     <hyperlink ref="D42" r:id="rId41" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
     <hyperlink ref="D43" r:id="rId42" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88616C45-8497-9549-8D5B-1E808D4CBE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC31A2B-12A4-9F40-87BC-4F350CB2C119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="11880" yWindow="760" windowWidth="22680" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="175">
   <si>
     <t>Solution</t>
   </si>
@@ -549,6 +549,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/car-fleet/</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return true if target in the matrix </t>
+  </si>
+  <si>
+    <t>Do binary search directly on the matrix. Use right pointer to last array last element (m * n - 1). Calculate middle element value in 2D matrix using matrix[mid/n][mid%n]</t>
   </si>
 </sst>
 </file>
@@ -989,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1612,6 +1624,20 @@
       </c>
       <c r="D44" s="2" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1659,6 +1685,7 @@
     <hyperlink ref="D42" r:id="rId41" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
     <hyperlink ref="D43" r:id="rId42" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
     <hyperlink ref="D44" r:id="rId43" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC31A2B-12A4-9F40-87BC-4F350CB2C119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAE9D80-93BB-4242-930D-C45F16B6984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="760" windowWidth="22680" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
   <si>
     <t>Solution</t>
   </si>
@@ -560,7 +560,19 @@
     <t xml:space="preserve">Return true if target in the matrix </t>
   </si>
   <si>
-    <t>Do binary search directly on the matrix. Use right pointer to last array last element (m * n - 1). Calculate middle element value in 2D matrix using matrix[mid/n][mid%n]</t>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>Return minimum number of bananas per hour</t>
+  </si>
+  <si>
+    <t>Use binary search directly on the matrix. Use right pointer to last array last element (m * n - 1). Calculate middle element value in 2D matrix using matrix[mid/n][mid%n]</t>
+  </si>
+  <si>
+    <t>Use binary to find min value. Set initial left = 1 and right = max pile size. Calculate total hours to eat bananas at current mid. At the end of the search, return right.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1634,10 +1646,24 @@
         <v>173</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1686,6 +1712,7 @@
     <hyperlink ref="D43" r:id="rId42" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
     <hyperlink ref="D44" r:id="rId43" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
     <hyperlink ref="D45" r:id="rId44" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAE9D80-93BB-4242-930D-C45F16B6984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A129D5-B731-1C40-826C-E83287F61178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
   <si>
     <t>Solution</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/koko-eating-bananas/</t>
+  </si>
+  <si>
+    <t>Return the number of car fleet</t>
+  </si>
+  <si>
+    <t>Create a Car class to hold position and time to reach to the destination using (target - pos) / speed. Sort the array of car in descending order. Iterate over array and if current car time is greater than increase fleet.</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1633,6 +1639,12 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>169</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>170</v>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A129D5-B731-1C40-826C-E83287F61178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A61D7-573A-034F-9921-BFB81B8D1F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="18480" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
   <si>
     <t>Solution</t>
   </si>
@@ -579,6 +579,15 @@
   </si>
   <si>
     <t>Create a Car class to hold position and time to reach to the destination using (target - pos) / speed. Sort the array of car in descending order. Iterate over array and if current car time is greater than increase fleet.</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Return the largest rectangle area</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1676,6 +1685,17 @@
       </c>
       <c r="D46" s="2" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1725,6 +1745,7 @@
     <hyperlink ref="D44" r:id="rId43" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
     <hyperlink ref="D45" r:id="rId44" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
     <hyperlink ref="D46" r:id="rId45" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
+    <hyperlink ref="D47" r:id="rId46" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A61D7-573A-034F-9921-BFB81B8D1F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10B81BE-427C-4C4E-9ED0-CA22CCA8F9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="18480" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="12020" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
   <si>
     <t>Solution</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
+  </si>
+  <si>
+    <t>Use stack to hold indices of the bars. Keep pushing index untill heights are in increasing order. If next bar in smaller, keep popping and calculate area.</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1693,6 +1696,9 @@
       </c>
       <c r="B47" s="1" t="s">
         <v>182</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>183</v>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10B81BE-427C-4C4E-9ED0-CA22CCA8F9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF9E9A1-2DA4-EB4B-A166-20D9793D54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="12020" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
   <si>
     <t>Solution</t>
   </si>
@@ -591,6 +591,18 @@
   </si>
   <si>
     <t>Use stack to hold indices of the bars. Keep pushing index untill heights are in increasing order. If next bar in smaller, keep popping and calculate area.</t>
+  </si>
+  <si>
+    <t>Time Based Key-Value Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a ds to store key, Pair&lt;Value, Timestamp&gt; </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/time-based-key-value-store/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use hash map to store &lt;Key, Pair&gt;. Use tree map to store &lt;Integer, String&gt; since it automatically sorts using Key(timestamp) and provides FloorKey which finds the greatest key (timestamp) that is less than or equal to a given timestamp. </t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1702,6 +1714,20 @@
       </c>
       <c r="D47" s="2" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1752,6 +1778,7 @@
     <hyperlink ref="D45" r:id="rId44" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
     <hyperlink ref="D46" r:id="rId45" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
     <hyperlink ref="D47" r:id="rId46" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF9E9A1-2DA4-EB4B-A166-20D9793D54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC2FB9B-66CB-2045-A18C-ADD4731A1F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17800" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="204">
   <si>
     <t>Solution</t>
   </si>
@@ -603,6 +603,51 @@
   </si>
   <si>
     <t xml:space="preserve">Use hash map to store &lt;Key, Pair&gt;. Use tree map to store &lt;Integer, String&gt; since it automatically sorts using Key(timestamp) and provides FloorKey which finds the greatest key (timestamp) that is less than or equal to a given timestamp. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/median-of-two-sorted-arrays/</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Return the reversed linked list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/</t>
+  </si>
+  <si>
+    <t>Iterate over linked list using three pointers: prev, curr, next. Keep changing next pointer to previous pointer which will reverse the list.</t>
+  </si>
+  <si>
+    <t>Return median of two list in O(log (m+n))</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Return the head of the merged list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Iterate over both list together while comparing their values and adding them to merged list. Make sure to check for left over values in the orginal list and add them to merged list.</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Reorder list in L0 → Ln → L1 → Ln - 1 → L2 → Ln - 2 → …</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-list/</t>
+  </si>
+  <si>
+    <t>Use fast and slow pointers to find the median of the LL. Reverse second half of the LL. Use two pointers first (pointing at 1st half) and second (pointing at 2nd half) to reoder the list.</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1728,6 +1773,59 @@
       </c>
       <c r="D48" s="2" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1779,6 +1877,10 @@
     <hyperlink ref="D46" r:id="rId45" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
     <hyperlink ref="D47" r:id="rId46" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
     <hyperlink ref="D48" r:id="rId47" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{ABD6FDCB-C864-7E49-9696-974B9A0F70F8}"/>
+    <hyperlink ref="D50" r:id="rId49" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D51" r:id="rId50" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D52" r:id="rId51" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC2FB9B-66CB-2045-A18C-ADD4731A1F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DD8247-C968-2246-9BC5-6D83D3236AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17800" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="18620" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
   <si>
     <t>Solution</t>
   </si>
@@ -635,9 +635,6 @@
     <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
   </si>
   <si>
-    <t>Iterate over both list together while comparing their values and adding them to merged list. Make sure to check for left over values in the orginal list and add them to merged list.</t>
-  </si>
-  <si>
     <t>Reorder List</t>
   </si>
   <si>
@@ -648,6 +645,45 @@
   </si>
   <si>
     <t>Use fast and slow pointers to find the median of the LL. Reverse second half of the LL. Use two pointers first (pointing at 1st half) and second (pointing at 2nd half) to reoder the list.</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Return head of the list after removing node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>Use fast and slow pointers. Initially move fast pointer n nodes ahead. Now move both pointers one at a time. At end, slow node would be at n+1 node from end. Remove node and return head.</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Return head of the coppied linked list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterate over list and create new nodes as a copy and store the mapping using Hash map. Reset head and iterate again to update next and random pointers. </t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Return sum of linked list digits in linked list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/</t>
+  </si>
+  <si>
+    <t>Iterate over both lists together while comparing their values and adding them to merged list. Make sure to check for left over values in the orginal list and add them to merged list.</t>
+  </si>
+  <si>
+    <t>Iterate over both lists together while keep adding node value. Keep saving carry value and iterate till carry != 0, L1 != 0 and L2 != 0</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1844,7 @@
         <v>197</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>198</v>
@@ -1816,16 +1852,58 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>202</v>
+      <c r="B53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1881,6 +1959,9 @@
     <hyperlink ref="D50" r:id="rId49" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
     <hyperlink ref="D51" r:id="rId50" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
     <hyperlink ref="D52" r:id="rId51" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D53" r:id="rId52" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D55" r:id="rId54" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DD8247-C968-2246-9BC5-6D83D3236AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3F238E-7A88-D040-8A38-8A128F023755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="18620" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="220">
   <si>
     <t>Solution</t>
   </si>
@@ -684,6 +684,18 @@
   </si>
   <si>
     <t>Iterate over both lists together while keep adding node value. Keep saving carry value and iterate till carry != 0, L1 != 0 and L2 != 0</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Return true if cycle detected</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>Use fast and slow pointers. Keep iterating over list using both pointers. Move fast pointers two nodes at a time and slow node one node at a time. If both of the pointers meet than it has cycle.</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1904,6 +1916,20 @@
       </c>
       <c r="D55" s="2" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1962,6 +1988,7 @@
     <hyperlink ref="D53" r:id="rId52" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
     <hyperlink ref="D54" r:id="rId53" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
     <hyperlink ref="D55" r:id="rId54" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D56" r:id="rId55" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3F238E-7A88-D040-8A38-8A128F023755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBD576-BF84-5B40-BC49-063992366B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="19440" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="228">
   <si>
     <t>Solution</t>
   </si>
@@ -696,6 +696,30 @@
   </si>
   <si>
     <t>Use fast and slow pointers. Keep iterating over list using both pointers. Move fast pointers two nodes at a time and slow node one node at a time. If both of the pointers meet than it has cycle.</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return repeated num without using extra space </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Create a class to implement LRU Cache</t>
+  </si>
+  <si>
+    <t>Use doubly linked list to maintain recently used elements(head-most recently used, tail - least) and use hashmap to quickly access those dll nodes quickly. Add new element to front of dll and remove from end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use fast and slow pointers. Move fast pointer two steps at a time. When fast and slow pointers meet, reset slow pointer to beginning. When they meet again, it's a repeating number according to Floyd's algorithm. </t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1930,6 +1954,34 @@
       </c>
       <c r="D56" s="2" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1989,6 +2041,8 @@
     <hyperlink ref="D54" r:id="rId53" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
     <hyperlink ref="D55" r:id="rId54" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
     <hyperlink ref="D56" r:id="rId55" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D57" r:id="rId56" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D58" r:id="rId57" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDBD576-BF84-5B40-BC49-063992366B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C4AF2-FA7E-7B4A-8834-4890CAD6B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="19440" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="232">
   <si>
     <t>Solution</t>
   </si>
@@ -720,6 +720,18 @@
   </si>
   <si>
     <t xml:space="preserve">Use fast and slow pointers. Move fast pointer two steps at a time. When fast and slow pointers meet, reset slow pointer to beginning. When they meet again, it's a repeating number according to Floyd's algorithm. </t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Return diameter of the tree</t>
+  </si>
+  <si>
+    <t>Use recursive DFS approach to count depth. Call DFS on left subtree then right subtree, calculate diameter and update max. Make sure to add +1 for the current root count.</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1219,768 +1231,782 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1988,61 +2014,62 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D27" r:id="rId25" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D28" r:id="rId26" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
-    <hyperlink ref="D23" r:id="rId30" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{ABD6FDCB-C864-7E49-9696-974B9A0F70F8}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D23" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D25" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D26" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D27" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D28" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D29" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D30" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D31" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D32" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D24" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D33" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D34" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D35" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D36" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D37" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D38" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D39" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D40" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D41" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D42" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D43" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D44" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D45" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D46" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
+    <hyperlink ref="D47" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
+    <hyperlink ref="D48" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D49" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D50" r:id="rId47" xr:uid="{ABD6FDCB-C864-7E49-9696-974B9A0F70F8}"/>
+    <hyperlink ref="D51" r:id="rId48" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D52" r:id="rId49" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D53" r:id="rId50" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D54" r:id="rId51" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D55" r:id="rId52" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D56" r:id="rId53" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D57" r:id="rId54" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D58" r:id="rId55" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D59" r:id="rId56" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D4" r:id="rId57" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
+    <hyperlink ref="D5" r:id="rId58" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C4AF2-FA7E-7B4A-8834-4890CAD6B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6819D30F-CE17-DF43-89D1-465DA20FDF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="233">
   <si>
     <t>Solution</t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">Use recursive DFS approach to count depth. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use recursive DFS approach to check values of nodes. </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Check if tree is subtree of another tree.</t>
   </si>
   <si>
-    <t>Use recursive DFS to traverse thru nodes and call isSameTree function to check weather trees are same.</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Lowest Common Ancestor of a BST</t>
   </si>
   <si>
-    <t>Check if provided nodes are in left or right subtrees. Recursively call LCA function pass subtree where nodes are or return root.</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
   </si>
   <si>
@@ -605,12 +596,6 @@
     <t xml:space="preserve">Use hash map to store &lt;Key, Pair&gt;. Use tree map to store &lt;Integer, String&gt; since it automatically sorts using Key(timestamp) and provides FloorKey which finds the greatest key (timestamp) that is less than or equal to a given timestamp. </t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/median-of-two-sorted-arrays/</t>
-  </si>
-  <si>
-    <t>Median of Two Sorted Arrays</t>
-  </si>
-  <si>
     <t>Reverse Linked List</t>
   </si>
   <si>
@@ -623,9 +608,6 @@
     <t>Iterate over linked list using three pointers: prev, curr, next. Keep changing next pointer to previous pointer which will reverse the list.</t>
   </si>
   <si>
-    <t>Return median of two list in O(log (m+n))</t>
-  </si>
-  <si>
     <t>Merge Two Sorted Lists</t>
   </si>
   <si>
@@ -732,6 +714,27 @@
   </si>
   <si>
     <t>Use recursive DFS approach to count depth. Call DFS on left subtree then right subtree, calculate diameter and update max. Make sure to add +1 for the current root count.</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Return true if binary tree is balanced</t>
+  </si>
+  <si>
+    <t>Use recursive DFS to check the height of the right and left subtrees. Return true if their absolute height difference is not greater than 1 and right and left subtrees are balanced.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
+  </si>
+  <si>
+    <t>Use recursive DFS approach to check values of nodes. If both roots are null, return true. If either is null, return false. Make recursive call on left and right subtree.</t>
+  </si>
+  <si>
+    <t>Use recursive DFS to traverse thru nodes for main subTree untill root of subtree has a match. Then call isSameTree function to check weather trees are same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use BST properties to find node. If both node values are greater than root value then check right subtree else, check left subtree. If one is greater and other is smaller that means we're already at the desire root.  ||  This problem can be solved iterativly without using stack. Use while loop to iterate over tree and check left and right as before. </t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1189,10 +1192,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1206,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1220,10 +1223,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1231,845 +1234,848 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D34" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="2" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="B49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D49" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
-    <hyperlink ref="D22" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D23" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D25" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D26" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D27" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D28" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D29" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D30" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D31" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D32" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
-    <hyperlink ref="D24" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
-    <hyperlink ref="D33" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
-    <hyperlink ref="D34" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
-    <hyperlink ref="D35" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
-    <hyperlink ref="D36" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
-    <hyperlink ref="D37" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
-    <hyperlink ref="D38" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
-    <hyperlink ref="D39" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
-    <hyperlink ref="D40" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
-    <hyperlink ref="D41" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
-    <hyperlink ref="D42" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
-    <hyperlink ref="D43" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
-    <hyperlink ref="D44" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
-    <hyperlink ref="D45" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
-    <hyperlink ref="D46" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
-    <hyperlink ref="D47" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
-    <hyperlink ref="D48" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
-    <hyperlink ref="D49" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
-    <hyperlink ref="D50" r:id="rId47" xr:uid="{ABD6FDCB-C864-7E49-9696-974B9A0F70F8}"/>
-    <hyperlink ref="D51" r:id="rId48" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
-    <hyperlink ref="D52" r:id="rId49" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
-    <hyperlink ref="D53" r:id="rId50" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
-    <hyperlink ref="D54" r:id="rId51" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
-    <hyperlink ref="D55" r:id="rId52" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
-    <hyperlink ref="D56" r:id="rId53" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
-    <hyperlink ref="D57" r:id="rId54" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
-    <hyperlink ref="D58" r:id="rId55" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
-    <hyperlink ref="D59" r:id="rId56" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
-    <hyperlink ref="D4" r:id="rId57" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
-    <hyperlink ref="D5" r:id="rId58" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D24" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D25" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D34" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D35" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D36" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D37" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D38" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D39" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D40" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D41" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D42" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D43" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D44" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D45" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D46" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D47" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
+    <hyperlink ref="D48" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
+    <hyperlink ref="D49" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D50" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D51" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D52" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D53" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D54" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D55" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D56" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D57" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D58" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D59" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D4" r:id="rId56" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
+    <hyperlink ref="D5" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
+    <hyperlink ref="D6" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6819D30F-CE17-DF43-89D1-465DA20FDF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B1622-1C0E-454B-BAE0-4272A6FD3DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="237">
   <si>
     <t>Solution</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Return BT traversed in list of list</t>
   </si>
   <si>
-    <t>Use queue to iteratively BFS traverse. Keep count of levels and add values to list accordingly.</t>
-  </si>
-  <si>
     <t>Validate Binary Search Tree</t>
   </si>
   <si>
@@ -735,6 +732,21 @@
   </si>
   <si>
     <t xml:space="preserve">Use BST properties to find node. If both node values are greater than root value then check right subtree else, check left subtree. If one is greater and other is smaller that means we're already at the desire root.  ||  This problem can be solved iterativly without using stack. Use while loop to iterate over tree and check left and right as before. </t>
+  </si>
+  <si>
+    <t>Use queue to iteratively BFS traverse. Create a new subList for each level. For each element in queue, add their values to subList and add their children to queue.</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>Return list of values visible from right side</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>Use queue to iteratively BFS traverse. Add elements to answer list only first element of the current level [i==0]. Add right child first to the queue than left child.</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1234,16 +1246,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,16 +1274,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,7 +1294,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1296,7 +1308,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -1324,696 +1336,710 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="2" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="2" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="1" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="B58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>217</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2024,58 +2050,59 @@
     <hyperlink ref="D8" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
     <hyperlink ref="D9" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
-    <hyperlink ref="D14" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
-    <hyperlink ref="D18" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D21" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
-    <hyperlink ref="D23" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D24" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D28" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D29" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D30" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D31" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D32" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D33" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
-    <hyperlink ref="D25" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
-    <hyperlink ref="D34" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
-    <hyperlink ref="D35" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
-    <hyperlink ref="D36" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
-    <hyperlink ref="D37" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
-    <hyperlink ref="D38" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
-    <hyperlink ref="D39" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
-    <hyperlink ref="D40" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
-    <hyperlink ref="D41" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
-    <hyperlink ref="D42" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
-    <hyperlink ref="D43" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
-    <hyperlink ref="D44" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
-    <hyperlink ref="D45" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
-    <hyperlink ref="D46" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
-    <hyperlink ref="D47" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
-    <hyperlink ref="D48" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
-    <hyperlink ref="D49" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
-    <hyperlink ref="D50" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
-    <hyperlink ref="D51" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
-    <hyperlink ref="D52" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
-    <hyperlink ref="D53" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
-    <hyperlink ref="D54" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
-    <hyperlink ref="D55" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
-    <hyperlink ref="D56" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
-    <hyperlink ref="D57" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
-    <hyperlink ref="D58" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
-    <hyperlink ref="D59" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D29" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D30" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D31" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D33" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D34" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D36" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D37" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D39" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D40" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D41" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D42" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D43" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D44" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D45" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D46" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D47" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D48" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
+    <hyperlink ref="D49" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
+    <hyperlink ref="D50" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D51" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D52" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D53" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D54" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D55" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D56" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D57" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D58" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D59" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D60" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
     <hyperlink ref="D4" r:id="rId56" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
     <hyperlink ref="D5" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
     <hyperlink ref="D6" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
+    <hyperlink ref="D11" r:id="rId59" xr:uid="{11316C23-A969-994E-985D-9D9F10D662B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B1622-1C0E-454B-BAE0-4272A6FD3DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A9B632-0353-114D-83BE-8E0F7CBA4732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="18020" yWindow="760" windowWidth="16540" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="241">
   <si>
     <t>Solution</t>
   </si>
@@ -747,6 +747,18 @@
   </si>
   <si>
     <t>Use queue to iteratively BFS traverse. Add elements to answer list only first element of the current level [i==0]. Add right child first to the queue than left child.</t>
+  </si>
+  <si>
+    <t>Count Good Nodes in Binary Tree</t>
+  </si>
+  <si>
+    <t>Return number of nodes where root to node path has all lesser value nodes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-good-nodes-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Use recursive DFS approach to count good nodes by keeping track of maxSoFar. Make recursive call to left and right subtree to update the count.</t>
   </si>
 </sst>
 </file>
@@ -1187,9 +1199,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1302,743 +1314,757 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2047,62 +2073,63 @@
     <hyperlink ref="D3" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
-    <hyperlink ref="D15" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
-    <hyperlink ref="D16" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
-    <hyperlink ref="D17" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
-    <hyperlink ref="D18" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
-    <hyperlink ref="D20" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D21" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D22" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D27" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D28" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D29" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D30" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D31" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D32" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D33" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D34" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
-    <hyperlink ref="D26" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
-    <hyperlink ref="D35" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
-    <hyperlink ref="D36" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
-    <hyperlink ref="D37" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
-    <hyperlink ref="D38" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
-    <hyperlink ref="D39" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
-    <hyperlink ref="D40" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
-    <hyperlink ref="D41" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
-    <hyperlink ref="D42" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
-    <hyperlink ref="D43" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
-    <hyperlink ref="D44" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
-    <hyperlink ref="D45" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
-    <hyperlink ref="D46" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
-    <hyperlink ref="D47" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
-    <hyperlink ref="D48" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
-    <hyperlink ref="D49" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
-    <hyperlink ref="D50" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
-    <hyperlink ref="D51" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
-    <hyperlink ref="D52" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
-    <hyperlink ref="D53" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
-    <hyperlink ref="D54" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
-    <hyperlink ref="D55" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
-    <hyperlink ref="D56" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
-    <hyperlink ref="D57" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
-    <hyperlink ref="D58" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
-    <hyperlink ref="D59" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
-    <hyperlink ref="D60" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D28" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D29" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D30" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D31" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D32" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D33" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D35" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D27" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D36" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D37" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D38" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D39" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D40" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D41" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D42" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D43" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D44" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D45" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D46" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D47" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D48" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D49" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
+    <hyperlink ref="D50" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
+    <hyperlink ref="D51" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D52" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D53" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D54" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D55" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D56" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D57" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D58" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D59" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D60" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D61" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
     <hyperlink ref="D4" r:id="rId56" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
     <hyperlink ref="D5" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
     <hyperlink ref="D6" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
-    <hyperlink ref="D11" r:id="rId59" xr:uid="{11316C23-A969-994E-985D-9D9F10D662B7}"/>
+    <hyperlink ref="D12" r:id="rId59" xr:uid="{11316C23-A969-994E-985D-9D9F10D662B7}"/>
+    <hyperlink ref="D8" r:id="rId60" xr:uid="{71752224-60BB-E94B-A0CA-5BA804917649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A9B632-0353-114D-83BE-8E0F7CBA4732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F8908-5BC9-2B4D-979F-793235EA407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="760" windowWidth="16540" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Return true if provided tree is a BST</t>
   </si>
   <si>
-    <t>Use stack to iteratively DFS Inorder traverse on a tree. If prevous value is greater than current, return false;</t>
-  </si>
-  <si>
     <t>Graph Valid Tree</t>
   </si>
   <si>
@@ -759,6 +756,9 @@
   </si>
   <si>
     <t>Use recursive DFS approach to count good nodes by keeping track of maxSoFar. Make recursive call to left and right subtree to update the count.</t>
+  </si>
+  <si>
+    <t>Use recursive DFS while keeping track of max and min value for each child. While checking left subtree, set root value as max bound else min bound for right subtree.  ||  Use stack to iteratively DFS Inorder traverse on a tree. If prevous value is greater than current, return false;</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -1258,16 +1258,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,16 +1286,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1362,24 +1362,24 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,682 +1390,682 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F8908-5BC9-2B4D-979F-793235EA407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192488D4-940B-2545-9A15-2661110DA64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="245">
   <si>
     <t>Solution</t>
   </si>
@@ -759,6 +759,18 @@
   </si>
   <si>
     <t>Use recursive DFS while keeping track of max and min value for each child. While checking left subtree, set root value as max bound else min bound for right subtree.  ||  Use stack to iteratively DFS Inorder traverse on a tree. If prevous value is greater than current, return false;</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Return kTh smallest element in BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use recursive DFS and create a list of of elements in in-order traversal which will have sorted values. Return Kth value from the list. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1398,673 +1410,687 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2077,59 +2103,60 @@
     <hyperlink ref="D10" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
-    <hyperlink ref="D18" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
-    <hyperlink ref="D20" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
-    <hyperlink ref="D21" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D24" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
-    <hyperlink ref="D25" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D26" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D28" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D29" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D30" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D31" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D32" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D33" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D34" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D35" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
-    <hyperlink ref="D27" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
-    <hyperlink ref="D36" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
-    <hyperlink ref="D37" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
-    <hyperlink ref="D38" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
-    <hyperlink ref="D39" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
-    <hyperlink ref="D40" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
-    <hyperlink ref="D41" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
-    <hyperlink ref="D42" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
-    <hyperlink ref="D43" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
-    <hyperlink ref="D44" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
-    <hyperlink ref="D45" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
-    <hyperlink ref="D46" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
-    <hyperlink ref="D47" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
-    <hyperlink ref="D48" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
-    <hyperlink ref="D49" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
-    <hyperlink ref="D50" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
-    <hyperlink ref="D51" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
-    <hyperlink ref="D52" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
-    <hyperlink ref="D53" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
-    <hyperlink ref="D54" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
-    <hyperlink ref="D55" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
-    <hyperlink ref="D56" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
-    <hyperlink ref="D57" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
-    <hyperlink ref="D58" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
-    <hyperlink ref="D59" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
-    <hyperlink ref="D60" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
-    <hyperlink ref="D61" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D24" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D25" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D26" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D29" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D30" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D31" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D32" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D33" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D34" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D28" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D37" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D38" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D39" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D40" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D41" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D42" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D43" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D44" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D45" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D46" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D47" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D48" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D49" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D50" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
+    <hyperlink ref="D51" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
+    <hyperlink ref="D52" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D53" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D54" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D55" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D56" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D57" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D58" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D59" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D60" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D61" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D62" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
     <hyperlink ref="D4" r:id="rId56" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
     <hyperlink ref="D5" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
     <hyperlink ref="D6" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
     <hyperlink ref="D12" r:id="rId59" xr:uid="{11316C23-A969-994E-985D-9D9F10D662B7}"/>
     <hyperlink ref="D8" r:id="rId60" xr:uid="{71752224-60BB-E94B-A0CA-5BA804917649}"/>
+    <hyperlink ref="D14" r:id="rId61" xr:uid="{FDE2143A-7188-4F44-9774-E4EBA09564E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192488D4-940B-2545-9A15-2661110DA64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0604415C-7F15-B54F-ADC1-92D4C06A508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
   <si>
     <t>Solution</t>
   </si>
@@ -771,6 +771,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return maximum path sum </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>Use recursive DFS to post-order traverse thru tree. Use helper function to calculate left and right sum. Make sure that it doesn't become negative. Calculate current path sum and update the max sum.</t>
+  </si>
+  <si>
+    <t>Construct BT from Pre &amp; Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal</t>
+  </si>
+  <si>
+    <t>Return constructed tree root</t>
+  </si>
+  <si>
+    <t>Use recursive build tree helper function to build tree using fact that first element in pre-order is root, elements left of root in in-order are left subtree, right of root are right subtree</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1424,673 +1448,701 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>69</v>
+      <c r="A25" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>92</v>
+      <c r="A32" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>100</v>
+      <c r="A34" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>176</v>
+      <c r="A52" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>208</v>
+      <c r="A60" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2103,60 +2155,62 @@
     <hyperlink ref="D10" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
-    <hyperlink ref="D17" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
-    <hyperlink ref="D16" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
-    <hyperlink ref="D18" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
-    <hyperlink ref="D19" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
-    <hyperlink ref="D20" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
-    <hyperlink ref="D21" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
-    <hyperlink ref="D22" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D24" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D25" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
-    <hyperlink ref="D26" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D27" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D29" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D30" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D31" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D32" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D33" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D34" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D35" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D36" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
-    <hyperlink ref="D28" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
-    <hyperlink ref="D37" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
-    <hyperlink ref="D38" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
-    <hyperlink ref="D39" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
-    <hyperlink ref="D40" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
-    <hyperlink ref="D41" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
-    <hyperlink ref="D42" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
-    <hyperlink ref="D43" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
-    <hyperlink ref="D44" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
-    <hyperlink ref="D45" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
-    <hyperlink ref="D46" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
-    <hyperlink ref="D47" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
-    <hyperlink ref="D48" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
-    <hyperlink ref="D49" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
-    <hyperlink ref="D50" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
-    <hyperlink ref="D51" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
-    <hyperlink ref="D52" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
-    <hyperlink ref="D53" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
-    <hyperlink ref="D54" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
-    <hyperlink ref="D55" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
-    <hyperlink ref="D56" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
-    <hyperlink ref="D57" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
-    <hyperlink ref="D58" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
-    <hyperlink ref="D59" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
-    <hyperlink ref="D60" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
-    <hyperlink ref="D61" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
-    <hyperlink ref="D62" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D23" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D26" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D29" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D31" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D32" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D33" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D34" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D35" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D36" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D37" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D38" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D39" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D40" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D41" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D42" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D43" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D44" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D45" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D46" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D47" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D48" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D49" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D50" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D51" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D52" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
+    <hyperlink ref="D53" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
+    <hyperlink ref="D54" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D55" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D56" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D57" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D58" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D59" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D60" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D61" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D62" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D63" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D64" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
     <hyperlink ref="D4" r:id="rId56" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
     <hyperlink ref="D5" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
     <hyperlink ref="D6" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
     <hyperlink ref="D12" r:id="rId59" xr:uid="{11316C23-A969-994E-985D-9D9F10D662B7}"/>
     <hyperlink ref="D8" r:id="rId60" xr:uid="{71752224-60BB-E94B-A0CA-5BA804917649}"/>
     <hyperlink ref="D14" r:id="rId61" xr:uid="{FDE2143A-7188-4F44-9774-E4EBA09564E5}"/>
+    <hyperlink ref="D16" r:id="rId62" xr:uid="{B6173CF0-8D3D-DE43-9C97-9103716C2930}"/>
+    <hyperlink ref="D15" r:id="rId63" xr:uid="{B5EFB8B9-E050-004A-BD65-2E684919A50E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPreps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPrep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0604415C-7F15-B54F-ADC1-92D4C06A508C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C47A3-3FC3-6F4B-8744-978377E4616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="260">
   <si>
     <t>Solution</t>
   </si>
@@ -795,6 +795,27 @@
   </si>
   <si>
     <t>Use recursive build tree helper function to build tree using fact that first element in pre-order is root, elements left of root in in-order are left subtree, right of root are right subtree</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Return the index of the element in O(log n)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search/</t>
+  </si>
+  <si>
+    <t>Use left and right pointers. Initially left = 0 and right = last element. While left &lt;= right, calculate mid and check if element is at mid. If element[mid] &lt; target, check right side.</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return target element index in O(log n) </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
   </si>
 </sst>
 </file>
@@ -1235,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1266,30 +1287,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,30 +1329,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,451 +1538,451 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>42</v>
+      <c r="A20" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>50</v>
+      <c r="A22" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>57</v>
+      <c r="A24" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>61</v>
+      <c r="A25" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>84</v>
+      <c r="A32" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>92</v>
+      <c r="A34" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>104</v>
+      <c r="A37" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>108</v>
+      <c r="A38" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>116</v>
+      <c r="A39" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>120</v>
+      <c r="A40" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>128</v>
+      <c r="A42" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>140</v>
+      <c r="A45" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>144</v>
+      <c r="A46" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>160</v>
+      <c r="A50" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>164</v>
+      <c r="A51" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,163 +2014,188 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>176</v>
+      <c r="A54" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
     <hyperlink ref="D9" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
@@ -2158,59 +2204,61 @@
     <hyperlink ref="D17" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
     <hyperlink ref="D19" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
     <hyperlink ref="D18" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
-    <hyperlink ref="D22" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
-    <hyperlink ref="D23" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
-    <hyperlink ref="D24" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D25" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D26" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D27" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
-    <hyperlink ref="D28" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D29" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D31" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D32" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D33" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D34" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D35" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D36" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D37" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D38" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
-    <hyperlink ref="D39" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
-    <hyperlink ref="D40" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
-    <hyperlink ref="D41" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
-    <hyperlink ref="D42" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
-    <hyperlink ref="D43" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
-    <hyperlink ref="D44" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
-    <hyperlink ref="D45" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
-    <hyperlink ref="D46" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
-    <hyperlink ref="D47" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
-    <hyperlink ref="D48" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
-    <hyperlink ref="D49" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
-    <hyperlink ref="D50" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
-    <hyperlink ref="D51" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D54" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D23" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D26" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D66" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D29" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D30" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D31" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D32" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D33" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D34" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D36" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D28" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D37" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D38" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D39" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D40" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D44" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D41" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D42" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D43" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D45" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D46" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D47" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D48" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D49" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
     <hyperlink ref="D52" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
     <hyperlink ref="D53" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
-    <hyperlink ref="D54" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
-    <hyperlink ref="D55" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
-    <hyperlink ref="D56" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
-    <hyperlink ref="D57" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
-    <hyperlink ref="D58" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
-    <hyperlink ref="D59" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
-    <hyperlink ref="D60" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
-    <hyperlink ref="D61" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
-    <hyperlink ref="D62" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
-    <hyperlink ref="D63" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
-    <hyperlink ref="D64" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D50" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D56" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D57" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D58" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D59" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D60" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D61" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D62" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D63" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D64" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D65" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
     <hyperlink ref="D4" r:id="rId56" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
-    <hyperlink ref="D5" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
-    <hyperlink ref="D6" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
+    <hyperlink ref="D2" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
+    <hyperlink ref="D5" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
     <hyperlink ref="D12" r:id="rId59" xr:uid="{11316C23-A969-994E-985D-9D9F10D662B7}"/>
     <hyperlink ref="D8" r:id="rId60" xr:uid="{71752224-60BB-E94B-A0CA-5BA804917649}"/>
     <hyperlink ref="D14" r:id="rId61" xr:uid="{FDE2143A-7188-4F44-9774-E4EBA09564E5}"/>
     <hyperlink ref="D16" r:id="rId62" xr:uid="{B6173CF0-8D3D-DE43-9C97-9103716C2930}"/>
     <hyperlink ref="D15" r:id="rId63" xr:uid="{B5EFB8B9-E050-004A-BD65-2E684919A50E}"/>
+    <hyperlink ref="D51" r:id="rId64" xr:uid="{4DC3E40C-8B70-FA40-A3E4-25E1734BDAFB}"/>
+    <hyperlink ref="D55" r:id="rId65" xr:uid="{4D2C1141-9A97-9644-8E45-216BD13BFF89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPrep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C47A3-3FC3-6F4B-8744-978377E4616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA149A47-5D76-5B48-BE86-F8CCBEFB30E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>https://leetcode.com/problems/maximum-depth-of-binary-tree</t>
   </si>
   <si>
-    <t xml:space="preserve">Use recursive DFS approach to count depth. </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Invert given binary tree</t>
   </si>
   <si>
-    <t xml:space="preserve">Use recursive DFS to invert subtrees </t>
-  </si>
-  <si>
     <t>Subtree of Another Tree</t>
   </si>
   <si>
@@ -816,6 +810,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>Use recursive DFS to invert subtrees. Use temp to swap left and right child.</t>
+  </si>
+  <si>
+    <t>Use recursive DFS approach to count depth. Use variable to hold left and right length and return max length + 1(root).</t>
   </si>
 </sst>
 </file>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1273,10 +1273,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1287,16 +1287,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,10 +1304,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>259</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -1315,30 +1315,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -1357,839 +1357,839 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPrep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA149A47-5D76-5B48-BE86-F8CCBEFB30E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B81383-6300-6B4B-AF1E-E82889B36D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19160" windowHeight="19880" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="264">
   <si>
     <t>Solution</t>
   </si>
@@ -816,6 +816,18 @@
   </si>
   <si>
     <t>Use recursive DFS approach to count depth. Use variable to hold left and right length and return max length + 1(root).</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Return the node of the cloned graph</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/clone-graph/</t>
+  </si>
+  <si>
+    <t>Use hash map to keep track of the cloned nodes. Keep cloning nodes if it's not there in a hash map and call cloneGraph function recursively to clone all of it's neighbors as well.</t>
   </si>
 </sst>
 </file>
@@ -1256,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2190,6 +2202,20 @@
       </c>
       <c r="D66" s="2" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2259,6 +2285,7 @@
     <hyperlink ref="D15" r:id="rId63" xr:uid="{B5EFB8B9-E050-004A-BD65-2E684919A50E}"/>
     <hyperlink ref="D51" r:id="rId64" xr:uid="{4DC3E40C-8B70-FA40-A3E4-25E1734BDAFB}"/>
     <hyperlink ref="D55" r:id="rId65" xr:uid="{4D2C1141-9A97-9644-8E45-216BD13BFF89}"/>
+    <hyperlink ref="D67" r:id="rId66" xr:uid="{E20CBFFF-001E-C84C-BB28-2ADC45304E0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPrep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B81383-6300-6B4B-AF1E-E82889B36D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11E21E-1B33-0141-B0FE-66E2A319F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19160" windowHeight="19880" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="11740" windowWidth="34560" windowHeight="8900" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="268">
   <si>
     <t>Solution</t>
   </si>
@@ -828,6 +828,18 @@
   </si>
   <si>
     <t>Use hash map to keep track of the cloned nodes. Keep cloning nodes if it's not there in a hash map and call cloneGraph function recursively to clone all of it's neighbors as well.</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-area-of-island/</t>
+  </si>
+  <si>
+    <t>Return maximum island area</t>
+  </si>
+  <si>
+    <t>Iterate over grid using 2 for loops. If we find an island, check it's neighbors and increase current island size. Explore neighbors and if they are part of the island, push it onto the stack.</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2216,6 +2228,20 @@
       </c>
       <c r="D67" s="2" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2286,6 +2312,7 @@
     <hyperlink ref="D51" r:id="rId64" xr:uid="{4DC3E40C-8B70-FA40-A3E4-25E1734BDAFB}"/>
     <hyperlink ref="D55" r:id="rId65" xr:uid="{4D2C1141-9A97-9644-8E45-216BD13BFF89}"/>
     <hyperlink ref="D67" r:id="rId66" xr:uid="{E20CBFFF-001E-C84C-BB28-2ADC45304E0D}"/>
+    <hyperlink ref="D68" r:id="rId67" xr:uid="{1846E8D2-0B76-704F-860F-4E3927F991B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPrep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D11E21E-1B33-0141-B0FE-66E2A319F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463D15A-7153-D945-B1D5-8105A95A0704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11740" windowWidth="34560" windowHeight="8900" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="272">
   <si>
     <t>Solution</t>
   </si>
@@ -840,6 +840,18 @@
   </si>
   <si>
     <t>Iterate over grid using 2 for loops. If we find an island, check it's neighbors and increase current island size. Explore neighbors and if they are part of the island, push it onto the stack.</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Construct a Trie data structure</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a TrieNode class which has an Array of TrieNode children and word end indicator. To implement 'insert' method, create a temp node to iterate over word tree. Iterate over word char by char and check if curr char is in the tree, if not, create a child node at the index. Keep iterating over word and create nodes and set end word indicator to true. For 'search' method, iterate same way over search word and return true if there is an end word indicator. </t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2242,6 +2254,20 @@
       </c>
       <c r="D68" s="2" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2313,6 +2339,7 @@
     <hyperlink ref="D55" r:id="rId65" xr:uid="{4D2C1141-9A97-9644-8E45-216BD13BFF89}"/>
     <hyperlink ref="D67" r:id="rId66" xr:uid="{E20CBFFF-001E-C84C-BB28-2ADC45304E0D}"/>
     <hyperlink ref="D68" r:id="rId67" xr:uid="{1846E8D2-0B76-704F-860F-4E3927F991B5}"/>
+    <hyperlink ref="D69" r:id="rId68" xr:uid="{0946BD1E-9AAC-2146-969D-141285FDF27E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPrep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463D15A-7153-D945-B1D5-8105A95A0704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF50BF-2A68-C14D-9086-D621624B0D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="19920" yWindow="760" windowWidth="14640" windowHeight="19880" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="300">
   <si>
     <t>Solution</t>
   </si>
@@ -221,9 +221,6 @@
     <t>https://leetcode.com/problems/climbing-stairs/</t>
   </si>
   <si>
-    <t>Return dinstics way to climb for given steps</t>
-  </si>
-  <si>
     <t>Use a bottom-up approach using for loop and an array. Subproblem: dp[n] = dp[n-1] + dp[n-2]</t>
   </si>
   <si>
@@ -852,6 +849,93 @@
   </si>
   <si>
     <t xml:space="preserve">Create a TrieNode class which has an Array of TrieNode children and word end indicator. To implement 'insert' method, create a temp node to iterate over word tree. Iterate over word char by char and check if curr char is in the tree, if not, create a child node at the index. Keep iterating over word and create nodes and set end word indicator to true. For 'search' method, iterate same way over search word and return true if there is an end word indicator. </t>
+  </si>
+  <si>
+    <t>Use modified binary search. Check for two main conditions: subarray on left is sorted(i.e. nums[mid] &gt;= nums[left]) or right is sorted. If left is sorted and nums[left] &lt;= target &amp;&amp; target &lt; nums[mid], which means target is in left half else check right half.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>Return true if given array contains duplicate number</t>
+  </si>
+  <si>
+    <t>Use hash set and iterate over array while adding items to the set. Return true if set.add doesn’t return false.</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Return true if given string is a palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/</t>
+  </si>
+  <si>
+    <t>Clean input by removing non-alphanum and converting it to lower case. Use two pointers to compare values at left and right pointers and return true if they all match.</t>
+  </si>
+  <si>
+    <t>Return distinct way to climb for given steps</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>Return decoded string</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-string/</t>
+  </si>
+  <si>
+    <t>Use two stacks to keep track of number in string and letters. Iterate over the string and if it's digits, push it onto the count stack. If '[' detected, push decorded string so far onto the string stack and reset decoded string. If ']' pop the last decoded string and build string.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>Return head of the sorted linked list</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>Iterate over linked list while comparing curr.val to curr.next.val. If they're same curr.next = curr.next.next</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Return true if linked list is a palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/</t>
+  </si>
+  <si>
+    <t>Use fast and slow pointers to find the median of the LL. Reverse second half of the LL. Compare first and second half and return false if their values does not match.</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Return reversed 32-bit integer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-integer/</t>
+  </si>
+  <si>
+    <t>Keep num%10 to extract digits. To add to the result, result * 10 + digit. To check overflow, make sure (newResult - digit) / 10 != result. Remove last digit from the num by num/10.</t>
+  </si>
+  <si>
+    <t>Longest Absolute File Path</t>
+  </si>
+  <si>
+    <t>Return length of the max absolute path</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-absolute-file-path/</t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1323,1023 +1407,1127 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>259</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>222</v>
+      <c r="A5" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
+      <c r="A6" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
+      <c r="A7" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
+      <c r="A11" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>230</v>
+      <c r="A12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>247</v>
+      <c r="A15" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>248</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>243</v>
+      <c r="A16" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>245</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>36</v>
+      <c r="A19" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>44</v>
+      <c r="A20" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>48</v>
+      <c r="A21" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>51</v>
+      <c r="A22" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>59</v>
+      <c r="A24" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>110</v>
+      <c r="A28" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>78</v>
+      <c r="A29" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>90</v>
+      <c r="A32" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>102</v>
+      <c r="A35" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>106</v>
+      <c r="A36" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>114</v>
+      <c r="A37" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>118</v>
+      <c r="A38" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>122</v>
+      <c r="A39" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>290</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>138</v>
+      <c r="A42" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>142</v>
+      <c r="A43" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>130</v>
+      <c r="A44" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>150</v>
+      <c r="A46" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>154</v>
+      <c r="A47" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>158</v>
+      <c r="A48" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>162</v>
+      <c r="A49" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>174</v>
+      <c r="A50" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>256</v>
+        <v>19</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>182</v>
+      <c r="A57" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>186</v>
+      <c r="A58" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>193</v>
+      <c r="A60" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>206</v>
+      <c r="A63" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>70</v>
+      <c r="A66" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>265</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>270</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
-    <hyperlink ref="D19" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
-    <hyperlink ref="D18" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
-    <hyperlink ref="D54" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
-    <hyperlink ref="D20" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
-    <hyperlink ref="D22" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
-    <hyperlink ref="D23" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D24" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D25" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D26" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
-    <hyperlink ref="D66" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D27" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D29" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D30" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D31" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
-    <hyperlink ref="D32" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
-    <hyperlink ref="D33" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
-    <hyperlink ref="D34" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
-    <hyperlink ref="D35" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
-    <hyperlink ref="D36" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
-    <hyperlink ref="D28" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
-    <hyperlink ref="D37" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
-    <hyperlink ref="D38" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
-    <hyperlink ref="D39" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
-    <hyperlink ref="D40" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
-    <hyperlink ref="D44" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
-    <hyperlink ref="D41" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
-    <hyperlink ref="D42" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
-    <hyperlink ref="D43" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
-    <hyperlink ref="D45" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
-    <hyperlink ref="D46" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
-    <hyperlink ref="D47" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
-    <hyperlink ref="D48" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
-    <hyperlink ref="D49" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
-    <hyperlink ref="D52" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
-    <hyperlink ref="D53" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
-    <hyperlink ref="D50" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
-    <hyperlink ref="D56" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
-    <hyperlink ref="D57" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
-    <hyperlink ref="D58" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
-    <hyperlink ref="D59" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
-    <hyperlink ref="D60" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
-    <hyperlink ref="D61" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
-    <hyperlink ref="D62" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
-    <hyperlink ref="D63" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
-    <hyperlink ref="D64" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
-    <hyperlink ref="D65" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
-    <hyperlink ref="D4" r:id="rId56" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
-    <hyperlink ref="D2" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
-    <hyperlink ref="D5" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
-    <hyperlink ref="D12" r:id="rId59" xr:uid="{11316C23-A969-994E-985D-9D9F10D662B7}"/>
-    <hyperlink ref="D8" r:id="rId60" xr:uid="{71752224-60BB-E94B-A0CA-5BA804917649}"/>
-    <hyperlink ref="D14" r:id="rId61" xr:uid="{FDE2143A-7188-4F44-9774-E4EBA09564E5}"/>
-    <hyperlink ref="D16" r:id="rId62" xr:uid="{B6173CF0-8D3D-DE43-9C97-9103716C2930}"/>
-    <hyperlink ref="D15" r:id="rId63" xr:uid="{B5EFB8B9-E050-004A-BD65-2E684919A50E}"/>
-    <hyperlink ref="D51" r:id="rId64" xr:uid="{4DC3E40C-8B70-FA40-A3E4-25E1734BDAFB}"/>
-    <hyperlink ref="D55" r:id="rId65" xr:uid="{4D2C1141-9A97-9644-8E45-216BD13BFF89}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{E20CBFFF-001E-C84C-BB28-2ADC45304E0D}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{1846E8D2-0B76-704F-860F-4E3927F991B5}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{0946BD1E-9AAC-2146-969D-141285FDF27E}"/>
+    <hyperlink ref="D50" r:id="rId1" xr:uid="{81FA332A-8EF1-4549-A3E8-9DC47654C3CA}"/>
+    <hyperlink ref="D47" r:id="rId2" xr:uid="{75605A2A-2A43-D74F-99C7-EE6AE9B1387A}"/>
+    <hyperlink ref="D51" r:id="rId3" xr:uid="{DB61C639-19F1-AB43-B8C0-AC6D20C4E12B}"/>
+    <hyperlink ref="D55" r:id="rId4" xr:uid="{7B6AA6D1-BC4B-2F4B-B8CC-B2273F527AED}"/>
+    <hyperlink ref="D56" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
+    <hyperlink ref="D57" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
+    <hyperlink ref="D53" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
+    <hyperlink ref="D65" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D73" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
+    <hyperlink ref="D32" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
+    <hyperlink ref="D12" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
+    <hyperlink ref="D13" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
+    <hyperlink ref="D66" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D67" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D68" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D62" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
+    <hyperlink ref="D69" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D70" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D71" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D72" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D3" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
+    <hyperlink ref="D5" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
+    <hyperlink ref="D6" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
+    <hyperlink ref="D8" r:id="rId27" xr:uid="{D3FCEC1C-8F22-B74D-B903-2907ECB753D2}"/>
+    <hyperlink ref="D9" r:id="rId28" xr:uid="{A82F7E7E-A704-EF42-8EFF-159283ACA9DE}"/>
+    <hyperlink ref="D10" r:id="rId29" xr:uid="{F2780EFF-1D3D-BC48-834D-EFF435AA2080}"/>
+    <hyperlink ref="D15" r:id="rId30" xr:uid="{77D35629-8CFB-3E4B-9BAB-EA727908ABFF}"/>
+    <hyperlink ref="D16" r:id="rId31" xr:uid="{7180229E-6E0F-024F-8A1A-D786EC0B4811}"/>
+    <hyperlink ref="D17" r:id="rId32" xr:uid="{1D5C85DA-EB65-F846-A4AB-F7AC5DD5A76B}"/>
+    <hyperlink ref="D18" r:id="rId33" xr:uid="{B35CA0CC-4481-DD46-9344-268C99D4811B}"/>
+    <hyperlink ref="D22" r:id="rId34" xr:uid="{186BA128-19D3-8747-ADA1-C2720A494347}"/>
+    <hyperlink ref="D19" r:id="rId35" xr:uid="{EEBDC5E5-F886-0148-8E36-809E5A377EE8}"/>
+    <hyperlink ref="D20" r:id="rId36" xr:uid="{4CBA85FB-C791-8E43-89A7-1196D9BD06F1}"/>
+    <hyperlink ref="D21" r:id="rId37" xr:uid="{9005E893-8AAF-BA40-80EE-5064E3E3F0B1}"/>
+    <hyperlink ref="D23" r:id="rId38" xr:uid="{1238868C-3272-D740-8313-083B91E2FE77}"/>
+    <hyperlink ref="D24" r:id="rId39" xr:uid="{AA85D42F-BC4F-8146-81DB-03775B9CB360}"/>
+    <hyperlink ref="D25" r:id="rId40" xr:uid="{B8F5A6E1-8C02-9D46-8B76-37A0B34E9C8A}"/>
+    <hyperlink ref="D26" r:id="rId41" xr:uid="{7A9E911C-89BC-3B48-9E80-AE85FAAEA921}"/>
+    <hyperlink ref="D27" r:id="rId42" xr:uid="{FE0D87B9-902B-0A43-8B5C-F222B9FA1123}"/>
+    <hyperlink ref="D30" r:id="rId43" xr:uid="{1C286A9C-9A1F-E340-B5F9-B71A344DCFCC}"/>
+    <hyperlink ref="D31" r:id="rId44" xr:uid="{F8DB7FFF-AE80-F946-9948-CB644CDE83DB}"/>
+    <hyperlink ref="D28" r:id="rId45" xr:uid="{C31CF6DF-6801-3849-8E9A-50B9DB84D3A8}"/>
+    <hyperlink ref="D34" r:id="rId46" xr:uid="{021A3E40-1E44-1246-B394-683AE93DEBD8}"/>
+    <hyperlink ref="D35" r:id="rId47" xr:uid="{49BE09A2-01E3-C845-8B0D-7BEED56B0438}"/>
+    <hyperlink ref="D36" r:id="rId48" xr:uid="{2917C5C7-925E-6543-9F69-9D2FB89136F6}"/>
+    <hyperlink ref="D38" r:id="rId49" xr:uid="{D51E8A99-A855-A34D-ACDB-796DBF858E96}"/>
+    <hyperlink ref="D40" r:id="rId50" xr:uid="{63CA1618-1153-1A44-B560-FE819F2D56B7}"/>
+    <hyperlink ref="D41" r:id="rId51" xr:uid="{F4F03AF2-517D-4546-B550-E759A049CBC8}"/>
+    <hyperlink ref="D42" r:id="rId52" xr:uid="{A7D40954-4185-E84A-8C06-0F963AF40A64}"/>
+    <hyperlink ref="D43" r:id="rId53" xr:uid="{06143F55-4844-FB41-A6C5-15C7C0866752}"/>
+    <hyperlink ref="D44" r:id="rId54" xr:uid="{52C6A777-CAE1-B744-A3D6-6DDB27155772}"/>
+    <hyperlink ref="D45" r:id="rId55" xr:uid="{E51A6A59-561F-EA4E-A3C0-59D6DEC4E061}"/>
+    <hyperlink ref="D48" r:id="rId56" xr:uid="{44E395AA-7E54-D94E-85D9-6AAF326C142E}"/>
+    <hyperlink ref="D46" r:id="rId57" xr:uid="{AE1502FC-4861-0F43-8DE9-AF0402F1CF4D}"/>
+    <hyperlink ref="D49" r:id="rId58" xr:uid="{D931EC70-0A44-0F4C-8516-0C28E03B6101}"/>
+    <hyperlink ref="D58" r:id="rId59" xr:uid="{11316C23-A969-994E-985D-9D9F10D662B7}"/>
+    <hyperlink ref="D52" r:id="rId60" xr:uid="{71752224-60BB-E94B-A0CA-5BA804917649}"/>
+    <hyperlink ref="D54" r:id="rId61" xr:uid="{FDE2143A-7188-4F44-9774-E4EBA09564E5}"/>
+    <hyperlink ref="D60" r:id="rId62" xr:uid="{B6173CF0-8D3D-DE43-9C97-9103716C2930}"/>
+    <hyperlink ref="D59" r:id="rId63" xr:uid="{B5EFB8B9-E050-004A-BD65-2E684919A50E}"/>
+    <hyperlink ref="D29" r:id="rId64" xr:uid="{4DC3E40C-8B70-FA40-A3E4-25E1734BDAFB}"/>
+    <hyperlink ref="D33" r:id="rId65" xr:uid="{4D2C1141-9A97-9644-8E45-216BD13BFF89}"/>
+    <hyperlink ref="D63" r:id="rId66" xr:uid="{E20CBFFF-001E-C84C-BB28-2ADC45304E0D}"/>
+    <hyperlink ref="D64" r:id="rId67" xr:uid="{1846E8D2-0B76-704F-860F-4E3927F991B5}"/>
+    <hyperlink ref="D61" r:id="rId68" xr:uid="{0946BD1E-9AAC-2146-969D-141285FDF27E}"/>
+    <hyperlink ref="D2" r:id="rId69" xr:uid="{79A1D728-11A4-5C4F-B192-B8D7E8216536}"/>
+    <hyperlink ref="D11" r:id="rId70" xr:uid="{E34D0B28-1D2E-6B46-BBB3-F692FBF88F42}"/>
+    <hyperlink ref="D74" r:id="rId71" xr:uid="{0ADDEC52-FE91-1546-BFE1-6672CF0D9CD1}"/>
+    <hyperlink ref="D39" r:id="rId72" xr:uid="{30F1C9F0-4183-2F46-AD6F-8EC7E11BEDCB}"/>
+    <hyperlink ref="D75" r:id="rId73" xr:uid="{31006679-DE45-3840-863E-012D968FBB16}"/>
+    <hyperlink ref="D76" r:id="rId74" xr:uid="{55F7F737-441B-C34B-BD9B-EC1D733EF2F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPrep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF50BF-2A68-C14D-9086-D621624B0D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB5F4D0-24D8-1149-AEC1-2A8D264C705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="760" windowWidth="14640" windowHeight="19880" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="304">
   <si>
     <t>Solution</t>
   </si>
@@ -936,6 +936,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-absolute-file-path/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pacific-atlantic-water-flow/</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>Return 2D list with common cells</t>
+  </si>
+  <si>
+    <t>Use recursive DFS to traverse over matrix. Keep track of pacific and atlatic reachable using boolean arrays and traverse from left to right and top to bottom. Return common cells in both of them.</t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2289,166 +2301,180 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2461,22 +2487,22 @@
     <hyperlink ref="D56" r:id="rId5" xr:uid="{A85D9E62-8269-804F-80E7-53A9EB46BCB6}"/>
     <hyperlink ref="D57" r:id="rId6" xr:uid="{187E11BF-B774-154E-B958-04088916D203}"/>
     <hyperlink ref="D53" r:id="rId7" xr:uid="{3134FC51-1C7C-6A41-94C1-26AA43037DF5}"/>
-    <hyperlink ref="D65" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
-    <hyperlink ref="D73" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
+    <hyperlink ref="D66" r:id="rId8" xr:uid="{3E1F2737-CB99-404C-A64B-A178B257FADC}"/>
+    <hyperlink ref="D74" r:id="rId9" xr:uid="{2C93FFDF-6D02-FB43-96B6-BE8CE0C6701B}"/>
     <hyperlink ref="D7" r:id="rId10" xr:uid="{6EC04383-2256-914C-9AAC-57B183F659B4}"/>
     <hyperlink ref="D32" r:id="rId11" xr:uid="{A21A88D2-6579-BE44-96A1-664F64FE55D7}"/>
     <hyperlink ref="D4" r:id="rId12" xr:uid="{B417A120-DBCF-B141-9F65-88FABAF54B62}"/>
     <hyperlink ref="D12" r:id="rId13" xr:uid="{20CE5E3D-C792-BF44-AA99-EEDC8CA11CD4}"/>
     <hyperlink ref="D13" r:id="rId14" xr:uid="{CE5AA9F6-D3B2-444D-90F6-C463623EC47C}"/>
     <hyperlink ref="D14" r:id="rId15" xr:uid="{676BCF16-5E47-7F43-B129-6C0ECAB8A1FD}"/>
-    <hyperlink ref="D66" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
-    <hyperlink ref="D67" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
-    <hyperlink ref="D68" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
+    <hyperlink ref="D67" r:id="rId16" xr:uid="{8BB9FA7E-5074-884F-BF96-701AE7B0C209}"/>
+    <hyperlink ref="D68" r:id="rId17" xr:uid="{D2A0C53C-9515-D04F-8A69-1FEAB98A084E}"/>
+    <hyperlink ref="D69" r:id="rId18" xr:uid="{EC78446D-D8C2-7D41-A868-52C097CD1104}"/>
     <hyperlink ref="D62" r:id="rId19" xr:uid="{479A7FA6-FA6F-144D-B251-478FF39988F3}"/>
-    <hyperlink ref="D69" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
-    <hyperlink ref="D70" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
-    <hyperlink ref="D71" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
-    <hyperlink ref="D72" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
+    <hyperlink ref="D70" r:id="rId20" xr:uid="{6CB87E9C-0C57-7A4B-B3F8-29E4D2759EFB}"/>
+    <hyperlink ref="D71" r:id="rId21" xr:uid="{A89C030A-4C2A-0343-AA01-4C2B69454CBB}"/>
+    <hyperlink ref="D72" r:id="rId22" xr:uid="{F6A54C3A-1A60-0342-93B6-EFA09E232994}"/>
+    <hyperlink ref="D73" r:id="rId23" xr:uid="{AC58C7F5-E104-7A48-886C-8C26A9CADBDF}"/>
     <hyperlink ref="D3" r:id="rId24" xr:uid="{9D679823-129A-4148-A25B-7BF002095F37}"/>
     <hyperlink ref="D5" r:id="rId25" xr:uid="{BA9F6EFD-64FA-CB4D-9B45-3A55A614489B}"/>
     <hyperlink ref="D6" r:id="rId26" xr:uid="{226288BA-73B4-194E-9BB1-05A9F762705E}"/>
@@ -2524,10 +2550,11 @@
     <hyperlink ref="D61" r:id="rId68" xr:uid="{0946BD1E-9AAC-2146-969D-141285FDF27E}"/>
     <hyperlink ref="D2" r:id="rId69" xr:uid="{79A1D728-11A4-5C4F-B192-B8D7E8216536}"/>
     <hyperlink ref="D11" r:id="rId70" xr:uid="{E34D0B28-1D2E-6B46-BBB3-F692FBF88F42}"/>
-    <hyperlink ref="D74" r:id="rId71" xr:uid="{0ADDEC52-FE91-1546-BFE1-6672CF0D9CD1}"/>
+    <hyperlink ref="D75" r:id="rId71" xr:uid="{0ADDEC52-FE91-1546-BFE1-6672CF0D9CD1}"/>
     <hyperlink ref="D39" r:id="rId72" xr:uid="{30F1C9F0-4183-2F46-AD6F-8EC7E11BEDCB}"/>
-    <hyperlink ref="D75" r:id="rId73" xr:uid="{31006679-DE45-3840-863E-012D968FBB16}"/>
-    <hyperlink ref="D76" r:id="rId74" xr:uid="{55F7F737-441B-C34B-BD9B-EC1D733EF2F2}"/>
+    <hyperlink ref="D76" r:id="rId73" xr:uid="{31006679-DE45-3840-863E-012D968FBB16}"/>
+    <hyperlink ref="D77" r:id="rId74" xr:uid="{55F7F737-441B-C34B-BD9B-EC1D733EF2F2}"/>
+    <hyperlink ref="D65" r:id="rId75" xr:uid="{107B5A51-EB25-B24D-82AC-6D8FB5A83159}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renish/IdeaProjects/InterviewPrep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB5F4D0-24D8-1149-AEC1-2A8D264C705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD051E79-914C-9240-B488-7CEC8F880A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{08AB6A11-DBB1-E340-ABF9-8FDF47FDF74B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="308">
   <si>
     <t>Solution</t>
   </si>
@@ -332,9 +332,6 @@
     <t>Top K Frequent Elements</t>
   </si>
   <si>
-    <t>Return K top frequent elements</t>
-  </si>
-  <si>
     <t>Use Map to map elements with their freqencies. Use priority queue to sort elements by its frequencies desc. Remove from pq and return as an array.</t>
   </si>
   <si>
@@ -948,6 +945,21 @@
   </si>
   <si>
     <t>Use recursive DFS to traverse over matrix. Keep track of pacific and atlatic reachable using boolean arrays and traverse from left to right and top to bottom. Return common cells in both of them.</t>
+  </si>
+  <si>
+    <t>Return K top frequent elements from an array</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Return rotated matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t>Transpose matrix by matrix[ i ][ j ] = matrix[ j ][ i ]. Reflect transposed matrix by matrix[ i ][ j ] = matrix[ i ][N - 1 - j] for half of the vertical columns.</t>
   </si>
 </sst>
 </file>
@@ -1388,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F82D20-21B0-354D-9411-D7EE78EC7053}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1419,16 +1431,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1478,13 +1490,13 @@
         <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,58 +1515,58 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,240 +1613,240 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,184 +1865,184 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>15</v>
@@ -2055,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -2063,30 +2075,30 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>4</v>
@@ -2111,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>14</v>
@@ -2119,16 +2131,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2151,7 @@
         <v>26</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>31</v>
@@ -2147,16 +2159,16 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>17</v>
@@ -2195,7 +2207,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>30</v>
@@ -2203,58 +2215,58 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,44 +2285,44 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,7 +2344,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>61</v>
@@ -2441,41 +2453,55 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2553,8 +2579,9 @@
     <hyperlink ref="D75" r:id="rId71" xr:uid="{0ADDEC52-FE91-1546-BFE1-6672CF0D9CD1}"/>
     <hyperlink ref="D39" r:id="rId72" xr:uid="{30F1C9F0-4183-2F46-AD6F-8EC7E11BEDCB}"/>
     <hyperlink ref="D76" r:id="rId73" xr:uid="{31006679-DE45-3840-863E-012D968FBB16}"/>
-    <hyperlink ref="D77" r:id="rId74" xr:uid="{55F7F737-441B-C34B-BD9B-EC1D733EF2F2}"/>
+    <hyperlink ref="D78" r:id="rId74" xr:uid="{55F7F737-441B-C34B-BD9B-EC1D733EF2F2}"/>
     <hyperlink ref="D65" r:id="rId75" xr:uid="{107B5A51-EB25-B24D-82AC-6D8FB5A83159}"/>
+    <hyperlink ref="D77" r:id="rId76" xr:uid="{7198601D-C847-3641-B03C-A1174339F078}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
